--- a/multiview_detector/tracker/OC_SORT/results/eval.xlsx
+++ b/multiview_detector/tracker/OC_SORT/results/eval.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,58 +530,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8426150121065376</v>
+        <v>0.8053830227743272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8718682891911238</v>
+        <v>0.8311965811965812</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8152610441767069</v>
+        <v>0.7811244979919679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9350736278447122</v>
+        <v>0.9390896921017403</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.9992877492877493</v>
       </c>
       <c r="G2" t="n">
         <v>76</v>
       </c>
       <c r="H2" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M2" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9123159303882196</v>
+        <v>0.9236947791164658</v>
       </c>
       <c r="P2" t="n">
-        <v>37.07748826385575</v>
+        <v>50.64339655496207</v>
       </c>
       <c r="Q2" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="R2" t="n">
         <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -591,58 +591,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8426150121065376</v>
+        <v>0.8053830227743272</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8718682891911238</v>
+        <v>0.8311965811965812</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8152610441767069</v>
+        <v>0.7811244979919679</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9350736278447122</v>
+        <v>0.9390896921017403</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.9992877492877493</v>
       </c>
       <c r="G3" t="n">
         <v>76</v>
       </c>
       <c r="H3" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9123159303882196</v>
+        <v>0.9236947791164658</v>
       </c>
       <c r="P3" t="n">
-        <v>37.07748826385575</v>
+        <v>50.64339655496207</v>
       </c>
       <c r="Q3" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="R3" t="n">
         <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
